--- a/Base/Teams/Cowboys/Distributions.xlsx
+++ b/Base/Teams/Cowboys/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9260814834438658, 0.6825793393905126, 1.6311493799802408, 2.8919956435976912)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2523562616014505, 1.1714303014356098, 2.8768238180141688, 4.71219734881189)</t>
-  </si>
-  <si>
-    <t>NIG(0.771137676206959, 0.5153880341800041, 1.6292261894289886, 3.244006600150618)</t>
-  </si>
-  <si>
-    <t>NIG(1.146296779847429, 0.8542736434500167, 4.580245852922131, 6.711632151013588)</t>
+    <t>NCT(2.279906628067043, 1.519524995518351, -0.277711842643387, 2.179763599604267)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3779226476176363, 1.2330460899897009, 2.104395625237625, 4.884614310058583)</t>
+  </si>
+  <si>
+    <t>NIG(0.8437896977083359, 0.5779014779080955, 1.5786788790712465, 3.381658367130838)</t>
+  </si>
+  <si>
+    <t>NIG(1.0559770899709198, 0.7830990314371007, 4.72437133049091, 6.774330604560702)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cowboys/Distributions.xlsx
+++ b/Base/Teams/Cowboys/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.279906628067043, 1.519524995518351, -0.277711842643387, 2.179763599604267)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3779226476176363, 1.2330460899897009, 2.104395625237625, 4.884614310058583)</t>
-  </si>
-  <si>
-    <t>NIG(0.8437896977083359, 0.5779014779080955, 1.5786788790712465, 3.381658367130838)</t>
-  </si>
-  <si>
-    <t>NIG(1.0559770899709198, 0.7830990314371007, 4.72437133049091, 6.774330604560702)</t>
+    <t>MIE(8.992021431753496, 5.155790420546889, -9.232865798980791, 11.2280607185638)</t>
+  </si>
+  <si>
+    <t>NIG(1.733655515200971, 1.399139184086505, 3.125591619569384, 5.8994532105016475)</t>
+  </si>
+  <si>
+    <t>NCT(2.830621498138038, 1.4989824221557055, -0.9589001052846127, 2.7197564204435754)</t>
+  </si>
+  <si>
+    <t>NIG(1.092863680491043, 0.8121646110194898, 4.619563152648613, 6.810411918884583)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cowboys/Distributions.xlsx
+++ b/Base/Teams/Cowboys/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(8.992021431753496, 5.155790420546889, -9.232865798980791, 11.2280607185638)</t>
-  </si>
-  <si>
-    <t>NIG(1.733655515200971, 1.399139184086505, 3.125591619569384, 5.8994532105016475)</t>
-  </si>
-  <si>
-    <t>NCT(2.830621498138038, 1.4989824221557055, -0.9589001052846127, 2.7197564204435754)</t>
-  </si>
-  <si>
-    <t>NIG(1.092863680491043, 0.8121646110194898, 4.619563152648613, 6.810411918884583)</t>
+    <t>MIE(9.228565317434532, 5.102986966614236, -9.369948010795211, 11.196645443370722)</t>
+  </si>
+  <si>
+    <t>NIG(1.5545601925557169, 1.253905792980563, 3.5441046053262584, 5.5370264167077385)</t>
+  </si>
+  <si>
+    <t>NCT(2.784755684251403, 1.484074419609915, -0.8403187444912417, 2.642922373263103)</t>
+  </si>
+  <si>
+    <t>NIG(1.0734894235987824, 0.7950558664099221, 4.611890505775763, 6.752311911919691)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cowboys/Distributions.xlsx
+++ b/Base/Teams/Cowboys/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(9.228565317434532, 5.102986966614236, -9.369948010795211, 11.196645443370722)</t>
-  </si>
-  <si>
-    <t>NIG(1.5545601925557169, 1.253905792980563, 3.5441046053262584, 5.5370264167077385)</t>
-  </si>
-  <si>
-    <t>NCT(2.784755684251403, 1.484074419609915, -0.8403187444912417, 2.642922373263103)</t>
-  </si>
-  <si>
-    <t>NIG(1.0734894235987824, 0.7950558664099221, 4.611890505775763, 6.752311911919691)</t>
+    <t>MIE(9.247899289988624, 5.089286524637233, -9.327757802982992, 11.08259963818744)</t>
+  </si>
+  <si>
+    <t>NIG(1.4771070285155434, 1.1809596969792222, 3.7919763829381896, 5.471617537237792)</t>
+  </si>
+  <si>
+    <t>NCT(2.6442920284104066, 1.4450663080488868, -0.7559237648165988, 2.614182809856946)</t>
+  </si>
+  <si>
+    <t>NIG(1.0129219418583895, 0.7558219078429569, 4.626853276835387, 6.522597708679598)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cowboys/Distributions.xlsx
+++ b/Base/Teams/Cowboys/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(9.247899289988624, 5.089286524637233, -9.327757802982992, 11.08259963818744)</t>
-  </si>
-  <si>
-    <t>NIG(1.4771070285155434, 1.1809596969792222, 3.7919763829381896, 5.471617537237792)</t>
-  </si>
-  <si>
-    <t>NCT(2.6442920284104066, 1.4450663080488868, -0.7559237648165988, 2.614182809856946)</t>
-  </si>
-  <si>
-    <t>NIG(1.0129219418583895, 0.7558219078429569, 4.626853276835387, 6.522597708679598)</t>
+    <t>NCT(2.7192241202917513, 1.6805182314333265, -0.8214327372047392, 2.2527045867808644)</t>
+  </si>
+  <si>
+    <t>NIG(1.4234884518940831, 1.1298953577506268, 3.971106612692277, 5.430107367289361)</t>
+  </si>
+  <si>
+    <t>NCT(2.763967477765263, 1.557281371352229, -1.0780543226718298, 2.631396734090565)</t>
+  </si>
+  <si>
+    <t>NIG(1.038882563386449, 0.767278786404356, 4.696019401458495, 6.618069206054132)</t>
   </si>
 </sst>
 </file>
